--- a/teste.xlsx
+++ b/teste.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,27 +525,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1443</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CARRINHO MAO VERMELHO 60L ESFERA ESFERA</t>
+          <t>COLHER PEDR RETA 10"" C/12 - TRAMONTINA TRAMONTINA MULT</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>109.6800000000</t>
+          <t>18.9150000000</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1234567008257</t>
+          <t>7891117004271</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CARRINHO MAO VERMELHO 60L ESFERA</t>
+          <t>COLHER PEDR RETA 10"" C/12 - TRAMONTINA</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -558,22 +558,22 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>87168000</t>
+          <t>82055900</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>ESFERA</t>
+          <t>TRAMONTINA MULT</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>7.90000000</t>
+          <t>0.00100000</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>https://cdn.msbitaqua.com.br/produtos/1443/1443.jpg</t>
+          <t>https://cdn.msbitaqua.com.br/produtos/1984/1984.jpg</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -591,7 +591,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
       <c r="Q2" t="b">
         <v>1</v>
       </c>
@@ -602,27 +606,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1442</t>
+          <t>8241</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CARRINHO MAO GALVANIZADO 60L -ESFERA ESFERA</t>
+          <t>INT. 1S C/PL 6A/250V ARIA TRAMONTINA ELE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>159.0930000000</t>
+          <t>4.8560000000</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7898228290920</t>
+          <t>7891435933581</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CARRINHO MAO GALVANIZADO 60L -ESFERA</t>
+          <t>INT. 1S C/PL 6A/250V ARIA</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -635,22 +639,22 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>87168000</t>
+          <t>85365090</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>ESFERA</t>
+          <t>TRAMONTINA ELE</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.00100000</t>
+          <t>0.01200000</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>https://cdn.msbitaqua.com.br/produtos/1442/1442.jpg</t>
+          <t>https://cdn.msbitaqua.com.br/produtos/8241/8241.jpg</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -668,7 +672,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
       <c r="Q3" t="b">
         <v>1</v>
       </c>
@@ -679,27 +687,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>1443</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>COLHER PEDR RETA 9"" C/12 - TRAMONTINA TRAMONTINA MULT</t>
+          <t>CARRINHO MAO VERMELHO 60L ESFERA ESFERA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18.7650000000</t>
+          <t>109.6800000000</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7891117004264</t>
+          <t>1234567008257</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>COLHER PEDR RETA 9"" C/12 - TRAMONTINA</t>
+          <t>CARRINHO MAO VERMELHO 60L ESFERA</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -712,22 +720,22 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>82055900</t>
+          <t>87168000</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>TRAMONTINA MULT</t>
+          <t>ESFERA</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.00100000</t>
+          <t>7.90000000</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>https://cdn.msbitaqua.com.br/produtos/1982/1982.jpg</t>
+          <t>https://cdn.msbitaqua.com.br/produtos/1443/1443.jpg</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -745,7 +753,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
       <c r="Q4" t="b">
         <v>1</v>
       </c>
@@ -756,27 +768,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9707</t>
+          <t>1442</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ARAME REC. TORCIDO BWG 1K C/20 - PIRES CIBRA</t>
+          <t>CARRINHO MAO GALVANIZADO 60L -ESFERA ESFERA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.7740000000</t>
+          <t>159.0930000000</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7898965442354</t>
+          <t>7898228290920</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ARAME REC. TORCIDO BWG 1K C/20 - PIRES</t>
+          <t>CARRINHO MAO GALVANIZADO 60L -ESFERA</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -789,22 +801,22 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>72171090</t>
+          <t>87168000</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>CIBRA</t>
+          <t>ESFERA</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1.00000000</t>
+          <t>0.00100000</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>https://cdn.msbitaqua.com.br/produtos/9707/9707.jpg</t>
+          <t>https://cdn.msbitaqua.com.br/produtos/1442/1442.jpg</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -822,7 +834,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
       <c r="Q5" t="b">
         <v>1</v>
       </c>
@@ -833,27 +849,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8245</t>
+          <t>1978</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>INT. 1S+TOM 2P+T C/PL BR 10A ARIA C/20 TRAMONTINA ELE</t>
+          <t>COLHER PEDR RETA 8"" C/12 - TRAMON TRAMONTINA MULT</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.4190000000</t>
+          <t>17.6220000000</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7891435938081</t>
+          <t>7891117004257</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>INT. 1S+TOM 2P+T C/PL BR 10A ARIA C/20</t>
+          <t>COLHER PEDR RETA 8"" C/12 - TRAMON</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -866,22 +882,22 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>85366910</t>
+          <t>82055900</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>TRAMONTINA ELE</t>
+          <t>TRAMONTINA MULT</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.05300000</t>
+          <t>0.00100000</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>https://cdn.msbitaqua.com.br/produtos/8245/8245.jpg</t>
+          <t>https://cdn.msbitaqua.com.br/produtos/1978/1978.jpg</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -899,7 +915,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
       <c r="Q6" t="b">
         <v>1</v>
       </c>
@@ -910,27 +930,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8244</t>
+          <t>6219</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>INT. 1S+TOM 2P+T 20A C/PL ARIA C/20 TRAMONTINA ELE</t>
+          <t>REGISTRO ESF SOLD (B) 3/4 C/5 - VIQUA VIQUA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9.7360000000</t>
+          <t>4.5580000000</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7891435937992</t>
+          <t>789848664726</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>INT. 1S+TOM 2P+T 20A C/PL ARIA C/20</t>
+          <t>REGISTRO ESF SOLD (B) 3/4 C/5 - VIQUA</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -943,22 +963,22 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>85366910</t>
+          <t>84818095</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>TRAMONTINA ELE</t>
+          <t>VIQUA</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.05200000</t>
+          <t>0.00100000</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>https://cdn.msbitaqua.com.br/produtos/8244/8244.jpg</t>
+          <t>https://cdn.msbitaqua.com.br/produtos/6219/6219.jpg</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -976,7 +996,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
       <c r="Q7" t="b">
         <v>1</v>
       </c>
@@ -987,27 +1011,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3531</t>
+          <t>9946</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GESSO RAPIDO 1K C/20 - INDEFLEX INDEFLEX</t>
+          <t>TECPLUS TOP (VEDATOP) 18KG - QUARTZOLIT QUARTZOLIT</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.8990000000</t>
+          <t>44.8280000000</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3789857872043</t>
+          <t>7894174232236</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>GESSO RAPIDO 1K C/20 - INDEFLEX</t>
+          <t>TECPLUS TOP (VEDATOP) 18KG - QUARTZOLIT</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1020,12 +1044,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>25202090</t>
+          <t>32149000</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>INDEFLEX</t>
+          <t>QUARTZOLIT</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1035,7 +1059,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>https://cdn.msbitaqua.com.br/produtos/3531/3531.jpg</t>
+          <t>https://cdn.msbitaqua.com.br/produtos/9946/9946.jpg</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1053,7 +1077,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
       <c r="Q8" t="b">
         <v>1</v>
       </c>
@@ -1064,27 +1092,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7627</t>
+          <t>9956</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TRINCHA 1/2 CERDA GRISA 400 C/12 - CAS CASTOR</t>
+          <t>TECPLUS TOP (VEDATOP) 4KG - QUARTZOLIT QUARTZOLIT</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.7250000000</t>
+          <t>16.9250000000</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7898003894527</t>
+          <t>7894174232250</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>TRINCHA 1/2 CERDA GRISA 400 C/12 - CAS</t>
+          <t>TECPLUS TOP (VEDATOP) 4KG - QUARTZOLIT</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1097,22 +1125,22 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>96034090</t>
+          <t>32149000</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>CASTOR</t>
+          <t>QUARTZOLIT</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.01200000</t>
+          <t>1.00000000</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>https://cdn.msbitaqua.com.br/produtos/7627/7627.jpg</t>
+          <t>https://cdn.msbitaqua.com.br/produtos/9956/9956.jpg</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1130,7 +1158,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
       <c r="Q9" t="b">
         <v>1</v>
       </c>
@@ -1141,27 +1173,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7905</t>
+          <t>2387</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>VEDANTE 3/4 SILICONE BOLA (1EMB C/200) UNOPLASTIC</t>
+          <t>DISCO DIAM. LISO CONTINUO - MELFI MELFI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>21.9800000000</t>
+          <t>6.8270000000</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7898151980349</t>
+          <t>7898943365071</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>VEDANTE 3/4 SILICONE BOLA (1EMB C/200)</t>
+          <t>DISCO DIAM. LISO CONTINUO - MELFI</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1174,22 +1206,22 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>39269090</t>
+          <t>68042119</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>UNOPLASTIC</t>
+          <t>MELFI</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.00100000</t>
+          <t>0.10900000</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>https://cdn.msbitaqua.com.br/produtos/7905/7905.jpg</t>
+          <t>https://cdn.msbitaqua.com.br/produtos/2387/2387.jpg</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1207,7 +1239,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
       <c r="Q10" t="b">
         <v>1</v>
       </c>
@@ -1218,27 +1254,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3026</t>
+          <t>2399</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>EXTENSAO CURTA 1/2 CR - GARDEN GARDEN</t>
+          <t>DISCO DIAM. SECO/SEGM VD - MELFI MELFI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.6290000000</t>
+          <t>6.8310000000</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7893308002202</t>
+          <t>7898943365088</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>EXTENSAO CURTA 1/2 CR - GARDEN</t>
+          <t>DISCO DIAM. SECO/SEGM VD - MELFI</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1251,22 +1287,22 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>79070090</t>
+          <t>68042119</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>GARDEN</t>
+          <t>MELFI</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1.00000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>https://cdn.msbitaqua.com.br/produtos/3026/3026.jpg</t>
+          <t>https://cdn.msbitaqua.com.br/produtos/2399/2399.jpg</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1284,7 +1320,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
       <c r="Q11" t="b">
         <v>1</v>
       </c>
@@ -1295,27 +1335,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1020</t>
+          <t>2403</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BUCHA RED. ROSC 3/4X1/2 C/50 - KRONA KRONA</t>
+          <t>DISCO DIAM. TURBO 110X20MM - MELFI MELFI</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.8110000000</t>
+          <t>6.8400000000</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1234567018324</t>
+          <t>7898943365095</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>BUCHA RED. ROSC 3/4X1/2 C/50 - KRONA</t>
+          <t>DISCO DIAM. TURBO 110X20MM - MELFI</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1328,22 +1368,22 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>39174090</t>
+          <t>68042119</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>KRONA</t>
+          <t>MELFI</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>https://cdn.msbitaqua.com.br/produtos/1020/1020.jpg</t>
+          <t>https://cdn.msbitaqua.com.br/produtos/2403/2403.jpg</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1361,7 +1401,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
       <c r="Q12" t="b">
         <v>1</v>
       </c>
@@ -1372,27 +1416,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7898</t>
+          <t>2354</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>VEDANEL P/ VASO C/ GUIA - PULVITEC</t>
+          <t>DISCO CORTE ACO 7.0X1.6X22 7/8 -STARRET STARRET</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.8940000000</t>
+          <t>4.9630000000</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7896038100804</t>
+          <t>7891265148544</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>VEDANEL P/ VASO C/ GUIA - PULVITEC</t>
+          <t>DISCO CORTE ACO 7.0X1.6X22 7/8 -STARRET</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1405,22 +1449,22 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>40069000</t>
+          <t>68042211</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>GENÉRICO</t>
+          <t>STARRET</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1.00000000</t>
+          <t>0.00100000</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>https://cdn.msbitaqua.com.br/produtos/7898/7898.jpg</t>
+          <t>https://cdn.msbitaqua.com.br/produtos/2354/2354.jpg</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1438,7 +1482,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
       <c r="Q13" t="b">
         <v>1</v>
       </c>
@@ -1449,27 +1497,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2694</t>
+          <t>2683</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ENXADA LARGA C/C 145CM - TRAMONTINA TRAMONTINA MULT</t>
+          <t>ENGATE PVC 40CM C/20 - KRONA KRONA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>50.4866666667</t>
+          <t>3.6990000000</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7890000002694</t>
+          <t>7897801300834</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ENXADA LARGA C/C 145CM - TRAMONTINA</t>
+          <t>ENGATE PVC 40CM C/20 - KRONA</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1482,22 +1530,22 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>82019000</t>
+          <t>39173300</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>TRAMONTINA MULT</t>
+          <t>KRONA</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.00100000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>https://cdn.msbitaqua.com.br/produtos/2694/2694.jpg</t>
+          <t>https://cdn.msbitaqua.com.br/produtos/2683/2683.jpg</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1515,7 +1563,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
       <c r="Q14" t="b">
         <v>1</v>
       </c>
@@ -1526,27 +1578,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2685</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CONDUITE (B) 3/4" CZ 50M - CORRUTECH CORRUTECH</t>
+          <t>ENGATE PVC 50CM C/20 - KRONA KRONA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>37.0210000000</t>
+          <t>4.4350000000</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7890000002016</t>
+          <t>7897801300841</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>CONDUITE (B) 3/4" CZ 50M - CORRUTECH</t>
+          <t>ENGATE PVC 50CM C/20 - KRONA</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1559,22 +1611,22 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>39173900</t>
+          <t>39173300</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>CORRUTECH</t>
+          <t>KRONA</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.00100000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>https://cdn.msbitaqua.com.br/produtos/2016/2016.jpg</t>
+          <t>https://cdn.msbitaqua.com.br/produtos/2685/2685.jpg</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1592,7 +1644,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
       <c r="Q15" t="b">
         <v>1</v>
       </c>
@@ -1603,27 +1659,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2687</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CONDUITE (C) 1.0" CZ 25M - CORRUTECH CORRUTECH</t>
+          <t>ENGATE PVC 60CM C/20 - KRONA KRONA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>33.7420000000</t>
+          <t>5.1570000000</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7890000002015</t>
+          <t>7897801303026</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>CONDUITE (C) 1.0" CZ 25M - CORRUTECH</t>
+          <t>ENGATE PVC 60CM C/20 - KRONA</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1636,22 +1692,22 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>39173900</t>
+          <t>39173300</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>CORRUTECH</t>
+          <t>KRONA</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>https://cdn.msbitaqua.com.br/produtos/2015/2015.jpg</t>
+          <t>https://cdn.msbitaqua.com.br/produtos/2687/2687.jpg</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1669,7 +1725,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
       <c r="Q16" t="b">
         <v>1</v>
       </c>
@@ -1680,27 +1740,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5118</t>
+          <t>8535</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PA BICO N. 3 C/C Y PLAST C/6 TRAMONTINA TRAMONTINA MULT</t>
+          <t>TOM. 2P+T C/PL HORIZ ARIA 10A C/20 -TRA TRAMONTINA ELE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>30.3590000000</t>
+          <t>4.3210000000</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7891117048695</t>
+          <t>7891435932577</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>PA BICO N. 3 C/C Y PLAST C/6 TRAMONTINA</t>
+          <t>TOM. 2P+T C/PL HORIZ ARIA 10A C/20 -TRA</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1713,22 +1773,22 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>82011000</t>
+          <t>85366910</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>TRAMONTINA MULT</t>
+          <t>TRAMONTINA ELE</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.00100000</t>
+          <t>0.04000000</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>https://cdn.msbitaqua.com.br/produtos/5118/5118.jpg</t>
+          <t>https://cdn.msbitaqua.com.br/produtos/8535/8535.jpg</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1746,7 +1806,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
       <c r="Q17" t="b">
         <v>1</v>
       </c>
@@ -1757,27 +1821,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6428</t>
+          <t>10340</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>RODEL 80MM - CORTAG CORTAG</t>
+          <t>INT. 1S+2TOM 2P+T C/PL BR 10A ARIA C/20 TRAMONTINA ELE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>8.7570000000</t>
+          <t>12.8750000000</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7897451452006</t>
+          <t>7891435938241</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>RODEL 80MM - CORTAG</t>
+          <t>INT. 1S+2TOM 2P+T C/PL BR 10A ARIA C/20</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1790,22 +1854,22 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>84669100</t>
+          <t>85366910</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>CORTAG</t>
+          <t>TRAMONTINA ELE</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.04500000</t>
+          <t>1.00000000</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>https://cdn.msbitaqua.com.br/produtos/6428/6428.jpg</t>
+          <t>https://cdn.msbitaqua.com.br/produtos/10340/10340.jpg</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1823,7 +1887,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
       <c r="Q18" t="b">
         <v>1</v>
       </c>
@@ -1834,27 +1902,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>10340</t>
+          <t>3026</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>INT. 1S+2TOM 2P+T C/PL BR 10A ARIA C/20 TRAMONTINA ELE</t>
+          <t>EXTENSAO CURTA 1/2 CR - GARDEN GARDEN</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>12.8750000000</t>
+          <t>6.6290000000</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7891435938241</t>
+          <t>7893308002202</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>INT. 1S+2TOM 2P+T C/PL BR 10A ARIA C/20</t>
+          <t>EXTENSAO CURTA 1/2 CR - GARDEN</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1867,12 +1935,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>85366910</t>
+          <t>79070090</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>TRAMONTINA ELE</t>
+          <t>GARDEN</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1882,7 +1950,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>https://cdn.msbitaqua.com.br/produtos/10340/10340.jpg</t>
+          <t>https://cdn.msbitaqua.com.br/produtos/3026/3026.jpg</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1900,7 +1968,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
       <c r="Q19" t="b">
         <v>1</v>
       </c>
@@ -1911,27 +1983,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>8241</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>INT. 1S C/PL 6A/250V ARIA TRAMONTINA ELE</t>
+          <t>COLHER PEDR RETA 9"" C/12 - TRAMONTINA TRAMONTINA MULT</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.8560000000</t>
+          <t>18.7650000000</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7891435933581</t>
+          <t>7891117004264</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>INT. 1S C/PL 6A/250V ARIA</t>
+          <t>COLHER PEDR RETA 9"" C/12 - TRAMONTINA</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1944,22 +2016,22 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>85365090</t>
+          <t>82055900</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>TRAMONTINA ELE</t>
+          <t>TRAMONTINA MULT</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.01200000</t>
+          <t>0.00100000</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>https://cdn.msbitaqua.com.br/produtos/8241/8241.jpg</t>
+          <t>https://cdn.msbitaqua.com.br/produtos/1982/1982.jpg</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1977,7 +2049,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
       <c r="Q20" t="b">
         <v>1</v>
       </c>
@@ -1988,27 +2064,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>8535</t>
+          <t>5118</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>TOM. 2P+T C/PL HORIZ ARIA 10A C/20 -TRA TRAMONTINA ELE</t>
+          <t>PA BICO N. 3 C/C Y PLAST C/6 TRAMONTINA TRAMONTINA MULT</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.3210000000</t>
+          <t>30.3590000000</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7891435932577</t>
+          <t>7891117048695</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>TOM. 2P+T C/PL HORIZ ARIA 10A C/20 -TRA</t>
+          <t>PA BICO N. 3 C/C Y PLAST C/6 TRAMONTINA</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2021,22 +2097,22 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>85366910</t>
+          <t>82011000</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>TRAMONTINA ELE</t>
+          <t>TRAMONTINA MULT</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.04000000</t>
+          <t>0.00100000</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>https://cdn.msbitaqua.com.br/produtos/8535/8535.jpg</t>
+          <t>https://cdn.msbitaqua.com.br/produtos/5118/5118.jpg</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2054,7 +2130,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
       <c r="Q21" t="b">
         <v>1</v>
       </c>
@@ -2065,27 +2145,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2687</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ENGATE PVC 60CM C/20 - KRONA KRONA</t>
+          <t>CONDUITE (C) 1.0" CZ 25M - CORRUTECH CORRUTECH</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5.1570000000</t>
+          <t>33.7420000000</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7897801303026</t>
+          <t>7890000002015</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ENGATE PVC 60CM C/20 - KRONA</t>
+          <t>CONDUITE (C) 1.0" CZ 25M - CORRUTECH</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2098,22 +2178,22 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>39173300</t>
+          <t>39173900</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>KRONA</t>
+          <t>CORRUTECH</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>https://cdn.msbitaqua.com.br/produtos/2687/2687.jpg</t>
+          <t>https://cdn.msbitaqua.com.br/produtos/2015/2015.jpg</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2131,7 +2211,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
       <c r="Q22" t="b">
         <v>1</v>
       </c>
@@ -2142,27 +2226,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2685</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ENGATE PVC 50CM C/20 - KRONA KRONA</t>
+          <t>CONDUITE (B) 3/4" CZ 50M - CORRUTECH CORRUTECH</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4.4350000000</t>
+          <t>37.0210000000</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>7897801300841</t>
+          <t>7890000002016</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ENGATE PVC 50CM C/20 - KRONA</t>
+          <t>CONDUITE (B) 3/4" CZ 50M - CORRUTECH</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2175,22 +2259,22 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>39173300</t>
+          <t>39173900</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>KRONA</t>
+          <t>CORRUTECH</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>0.00100000</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>https://cdn.msbitaqua.com.br/produtos/2685/2685.jpg</t>
+          <t>https://cdn.msbitaqua.com.br/produtos/2016/2016.jpg</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2208,7 +2292,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
       <c r="Q23" t="b">
         <v>1</v>
       </c>
@@ -2219,27 +2307,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2683</t>
+          <t>2694</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ENGATE PVC 40CM C/20 - KRONA KRONA</t>
+          <t>ENXADA LARGA C/C 145CM - TRAMONTINA TRAMONTINA MULT</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3.6990000000</t>
+          <t>50.4866666667</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>7897801300834</t>
+          <t>7890000002694</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ENGATE PVC 40CM C/20 - KRONA</t>
+          <t>ENXADA LARGA C/C 145CM - TRAMONTINA</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2252,22 +2340,22 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>39173300</t>
+          <t>82019000</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>KRONA</t>
+          <t>TRAMONTINA MULT</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>0.00100000</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>https://cdn.msbitaqua.com.br/produtos/2683/2683.jpg</t>
+          <t>https://cdn.msbitaqua.com.br/produtos/2694/2694.jpg</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2285,7 +2373,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
       <c r="Q24" t="b">
         <v>1</v>
       </c>
@@ -2296,27 +2388,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2354</t>
+          <t>7898</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DISCO CORTE ACO 7.0X1.6X22 7/8 -STARRET STARRET</t>
+          <t>VEDANEL P/ VASO C/ GUIA - PULVITEC</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4.9630000000</t>
+          <t>5.8940000000</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7891265148544</t>
+          <t>7896038100804</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>DISCO CORTE ACO 7.0X1.6X22 7/8 -STARRET</t>
+          <t>VEDANEL P/ VASO C/ GUIA - PULVITEC</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2329,22 +2421,22 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>68042211</t>
+          <t>40069000</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>STARRET</t>
+          <t>GENÉRICO</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.00100000</t>
+          <t>1.00000000</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>https://cdn.msbitaqua.com.br/produtos/2354/2354.jpg</t>
+          <t>https://cdn.msbitaqua.com.br/produtos/7898/7898.jpg</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2362,7 +2454,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
       <c r="Q25" t="b">
         <v>1</v>
       </c>
@@ -2373,27 +2469,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2403</t>
+          <t>1020</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DISCO DIAM. TURBO 110X20MM - MELFI MELFI</t>
+          <t>BUCHA RED. ROSC 3/4X1/2 C/50 - KRONA KRONA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>6.8400000000</t>
+          <t>0.8110000000</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>7898943365095</t>
+          <t>1234567018324</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>DISCO DIAM. TURBO 110X20MM - MELFI</t>
+          <t>BUCHA RED. ROSC 3/4X1/2 C/50 - KRONA</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2406,22 +2502,22 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>68042119</t>
+          <t>39174090</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>MELFI</t>
+          <t>KRONA</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>https://cdn.msbitaqua.com.br/produtos/2403/2403.jpg</t>
+          <t>https://cdn.msbitaqua.com.br/produtos/1020/1020.jpg</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2439,7 +2535,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
       <c r="Q26" t="b">
         <v>1</v>
       </c>
@@ -2450,27 +2550,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2399</t>
+          <t>6428</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DISCO DIAM. SECO/SEGM VD - MELFI MELFI</t>
+          <t>RODEL 80MM - CORTAG CORTAG</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6.8310000000</t>
+          <t>8.7570000000</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7898943365088</t>
+          <t>7897451452006</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>DISCO DIAM. SECO/SEGM VD - MELFI</t>
+          <t>RODEL 80MM - CORTAG</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2483,22 +2583,22 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>68042119</t>
+          <t>84669100</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>MELFI</t>
+          <t>CORTAG</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>0.04500000</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>https://cdn.msbitaqua.com.br/produtos/2399/2399.jpg</t>
+          <t>https://cdn.msbitaqua.com.br/produtos/6428/6428.jpg</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2516,7 +2616,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
       <c r="Q27" t="b">
         <v>1</v>
       </c>
@@ -2527,27 +2631,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2387</t>
+          <t>7905</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DISCO DIAM. LISO CONTINUO - MELFI MELFI</t>
+          <t>VEDANTE 3/4 SILICONE BOLA (1EMB C/200) UNOPLASTIC</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>6.8270000000</t>
+          <t>21.9800000000</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>7898943365071</t>
+          <t>7898151980349</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>DISCO DIAM. LISO CONTINUO - MELFI</t>
+          <t>VEDANTE 3/4 SILICONE BOLA (1EMB C/200)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2560,22 +2664,22 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>68042119</t>
+          <t>39269090</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>MELFI</t>
+          <t>UNOPLASTIC</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.10900000</t>
+          <t>0.00100000</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>https://cdn.msbitaqua.com.br/produtos/2387/2387.jpg</t>
+          <t>https://cdn.msbitaqua.com.br/produtos/7905/7905.jpg</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2593,7 +2697,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
       <c r="Q28" t="b">
         <v>1</v>
       </c>
@@ -2604,27 +2712,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>9956</t>
+          <t>7627</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>TECPLUS TOP (VEDATOP) 4KG - QUARTZOLIT QUARTZOLIT</t>
+          <t>TRINCHA 1/2 CERDA GRISA 400 C/12 - CAS CASTOR</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>16.9250000000</t>
+          <t>1.7250000000</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>7894174232250</t>
+          <t>7898003894527</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>TECPLUS TOP (VEDATOP) 4KG - QUARTZOLIT</t>
+          <t>TRINCHA 1/2 CERDA GRISA 400 C/12 - CAS</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2637,22 +2745,22 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>32149000</t>
+          <t>96034090</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>QUARTZOLIT</t>
+          <t>CASTOR</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>1.00000000</t>
+          <t>0.01200000</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>https://cdn.msbitaqua.com.br/produtos/9956/9956.jpg</t>
+          <t>https://cdn.msbitaqua.com.br/produtos/7627/7627.jpg</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2670,7 +2778,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
       <c r="Q29" t="b">
         <v>1</v>
       </c>
@@ -2681,27 +2793,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>9946</t>
+          <t>3531</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>TECPLUS TOP (VEDATOP) 18KG - QUARTZOLIT QUARTZOLIT</t>
+          <t>GESSO RAPIDO 1K C/20 - INDEFLEX INDEFLEX</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>44.8280000000</t>
+          <t>1.8990000000</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>7894174232236</t>
+          <t>3789857872043</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>TECPLUS TOP (VEDATOP) 18KG - QUARTZOLIT</t>
+          <t>GESSO RAPIDO 1K C/20 - INDEFLEX</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2714,12 +2826,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>32149000</t>
+          <t>25202090</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>QUARTZOLIT</t>
+          <t>INDEFLEX</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2729,7 +2841,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>https://cdn.msbitaqua.com.br/produtos/9946/9946.jpg</t>
+          <t>https://cdn.msbitaqua.com.br/produtos/3531/3531.jpg</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2747,7 +2859,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
       <c r="Q30" t="b">
         <v>1</v>
       </c>
@@ -2758,27 +2874,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>6219</t>
+          <t>8244</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>REGISTRO ESF SOLD (B) 3/4 C/5 - VIQUA VIQUA</t>
+          <t>INT. 1S+TOM 2P+T 20A C/PL ARIA C/20 TRAMONTINA ELE</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4.5580000000</t>
+          <t>9.7360000000</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>789848664726</t>
+          <t>7891435937992</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>REGISTRO ESF SOLD (B) 3/4 C/5 - VIQUA</t>
+          <t>INT. 1S+TOM 2P+T 20A C/PL ARIA C/20</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2791,22 +2907,22 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>84818095</t>
+          <t>85366910</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>VIQUA</t>
+          <t>TRAMONTINA ELE</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.00100000</t>
+          <t>0.05200000</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>https://cdn.msbitaqua.com.br/produtos/6219/6219.jpg</t>
+          <t>https://cdn.msbitaqua.com.br/produtos/8244/8244.jpg</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2824,7 +2940,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
       <c r="Q31" t="b">
         <v>1</v>
       </c>
@@ -2835,27 +2955,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1978</t>
+          <t>8245</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>COLHER PEDR RETA 8"" C/12 - TRAMON TRAMONTINA MULT</t>
+          <t>INT. 1S+TOM 2P+T C/PL BR 10A ARIA C/20 TRAMONTINA ELE</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>17.6220000000</t>
+          <t>9.4190000000</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>7891117004257</t>
+          <t>7891435938081</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>COLHER PEDR RETA 8"" C/12 - TRAMON</t>
+          <t>INT. 1S+TOM 2P+T C/PL BR 10A ARIA C/20</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2868,22 +2988,22 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>82055900</t>
+          <t>85366910</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>TRAMONTINA MULT</t>
+          <t>TRAMONTINA ELE</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0.00100000</t>
+          <t>0.05300000</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>https://cdn.msbitaqua.com.br/produtos/1978/1978.jpg</t>
+          <t>https://cdn.msbitaqua.com.br/produtos/8245/8245.jpg</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2901,7 +3021,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
       <c r="Q32" t="b">
         <v>1</v>
       </c>
@@ -2912,27 +3036,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>9707</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>COLHER PEDR RETA 10"" C/12 - TRAMONTINA TRAMONTINA MULT</t>
+          <t>ARAME REC. TORCIDO BWG 1K C/20 - PIRES CIBRA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>18.9150000000</t>
+          <t>11.7740000000</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>7891117004271</t>
+          <t>7898965442354</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>COLHER PEDR RETA 10"" C/12 - TRAMONTINA</t>
+          <t>ARAME REC. TORCIDO BWG 1K C/20 - PIRES</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2945,22 +3069,22 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>82055900</t>
+          <t>72171090</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>TRAMONTINA MULT</t>
+          <t>CIBRA</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.00100000</t>
+          <t>1.00000000</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>https://cdn.msbitaqua.com.br/produtos/1984/1984.jpg</t>
+          <t>https://cdn.msbitaqua.com.br/produtos/9707/9707.jpg</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -2978,9 +3102,2281 @@
           <t>1</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
       <c r="Q33" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>355143</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>BROCA ACO RAPIDO DEWALT  2,5MM</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.958</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>7896525069133</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7896525069133</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>MJR CUNHA DISTRIBUIDORA DE MAT.CONSTR LTDA</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>43893.18582175926</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>82075019</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>DEWALT</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
+      <c r="Q34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>326690</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>PA VANGA QUADRADA RAMADA C/CABO</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>19.99</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>7896438008588</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7896438008588</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>MJR CUNHA DISTRIBUIDORA DE MAT.CONSTR LTDA</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>43893.18582175926</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>82011000</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>GENÉRICO</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
+      <c r="Q35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>355135</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>BROCA ACO RAPIDO DEWALT  2,0MM</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.451</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>7896525070801</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7896525070801</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>MJR CUNHA DISTRIBUIDORA DE MAT.CONSTR LTDA</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>43893.18582175926</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>82075019</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>DEWALT</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
+      <c r="Q36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>257486</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>DISJ STECK SERIE SD62 50A 2P CURVA C 3KA</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>7893401194750</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7893401194750</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>MJR CUNHA DISTRIBUIDORA DE MAT.CONSTR LTDA</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>43893.18582175926</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>85362000</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>GENÉRICO</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
+      <c r="Q37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>110469</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>PARAF ROSC MAQ RED B 5/32X   1   JOMARCA</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.577</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>7892183010197</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7892183010197</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>MJR CUNHA DISTRIBUIDORA DE MAT.CONSTR LTDA</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>43893.18582175926</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>73181500</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>JOMARCA</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
+      <c r="Q38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>371262</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>SUPORTE BRASFORMA P/FORNO BR SBR3.6</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>23.206</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>7896689110368</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7896689110368</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>MJR CUNHA DISTRIBUIDORA DE MAT.CONSTR LTDA</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>43893.18582175926</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>73269090</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>BRASFORT</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
+      <c r="Q39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>310310</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ASSENTO METASUL ALMOFADADO OVAL BRANCO</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>29.69</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>7898188095115</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7898188095115</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>MJR CUNHA DISTRIBUIDORA DE MAT.CONSTR LTDA</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>43893.18582175926</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>39222000</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>METASUL</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
+      <c r="Q40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>290742</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>COTOVELO ESGOTO FORTLEV B 50 X 90 BR</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>7898543592662</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7898543592662</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>MJR CUNHA DISTRIBUIDORA DE MAT.CONSTR LTDA</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>43893.18582175926</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>39174090</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>GENÉRICO</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
+      <c r="Q41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>290750</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>COTOVELO ESGOTO FORTLEV C 75 X 90 BR</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>7898543590071</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7898543590071</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>MJR CUNHA DISTRIBUIDORA DE MAT.CONSTR LTDA</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>43893.18582175926</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>39174090</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>GENÉRICO</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
+      <c r="Q42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>290769</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>COTOVELO ESGOTO FORTLEV D 100 X 90 BR</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>7898543590095</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7898543590095</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>MJR CUNHA DISTRIBUIDORA DE MAT.CONSTR LTDA</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>43893.18582175926</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>39174090</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>GENÉRICO</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
+      <c r="Q43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>381772</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>ARCO SERRA RAYCO FIXO 12147</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.935</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>7898338090472</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7898338090472</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>MJR CUNHA DISTRIBUIDORA DE MAT.CONSTR LTDA</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>43893.18582175926</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>82021000</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>GENÉRICO</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
+      <c r="Q44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>333581</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>MARTELO BORRACH PT FJ FERR 40</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>7898922143232</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7898922143232</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>MJR CUNHA DISTRIBUIDORA DE MAT.CONSTR LTDA</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>43893.18582175926</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>39259090</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>FJ FERR</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
+      <c r="Q45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>333590</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>MARTELO BORRACH PT FJ FERR 60</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.837</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>7898922143249</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7898922143249</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>MJR CUNHA DISTRIBUIDORA DE MAT.CONSTR LTDA</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>43893.18582175926</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>39259090</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>FJ FERR</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
+      <c r="Q46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>11932</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>GANCHO  8" C/BUCHA   C/100</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>19.183</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>7898489750607</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7898489750607</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>MJR CUNHA DISTRIBUIDORA DE MAT.CONSTR LTDA</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>43893.18582175926</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>73181300</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>GENÉRICO</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
+      <c r="Q47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>60577</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>ARRUELA LISA ZINC A 5/32</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>20.426</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>7898518540186</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7898518540186</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>MJR CUNHA DISTRIBUIDORA DE MAT.CONSTR LTDA</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>43893.18582175926</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>73182200</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>GENÉRICO</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
+      <c r="Q48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>60585</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ARRUELA LISA ZINC B 3/16</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>17.699</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>7898518540193</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7898518540193</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>MJR CUNHA DISTRIBUIDORA DE MAT.CONSTR LTDA</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>43893.18582175926</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>73182200</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>GENÉRICO</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
+      <c r="Q49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>59714</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>PARAF SEX.ROS.SOBERBA 1/4 X 55</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>19.683</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>7892183271307</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7892183271307</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>MJR CUNHA DISTRIBUIDORA DE MAT.CONSTR LTDA</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>43893.18582175926</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>73181500</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>NEW FIX</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
+      <c r="Q50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>59722</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>PARAF SEX.ROS.SOBERBA 1/4 X 60</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>21.463</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>7892183042471</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7892183042471</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>MJR CUNHA DISTRIBUIDORA DE MAT.CONSTR LTDA</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>43893.18582175926</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>73181500</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>NEW FIX</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
+      <c r="Q51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>110574</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>PARAF ROSC MAQ RED C 3/16 X 1.1/2 JOMARC</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8.374</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>7892183010326</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7892183010326</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>MJR CUNHA DISTRIBUIDORA DE MAT.CONSTR LTDA</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>43893.18582175926</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>73181500</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>JOMARCA</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
+      <c r="Q52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>257842</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>DISJ STECK SERIE SD61 20A 1P CURVA C 3KA</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>7893401194590</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7893401194590</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>MJR CUNHA DISTRIBUIDORA DE MAT.CONSTR LTDA</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>43893.18582175926</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>85362000</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>GENÉRICO</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
+      <c r="Q53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>64513</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>SPRAY CHEMICOLOR METALICA PRATA 350ML</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>7898436142639</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7898436142639</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>MJR CUNHA DISTRIBUIDORA DE MAT.CONSTR LTDA</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>43893.18582175926</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>32082011</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>CHEMICOLOR</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
+      <c r="Q54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>291447</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>DUCHA L&amp;C BELLA DUCHA 4T 220V 6800W BR</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>37.69</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>7896451844859</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7896451844859</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>MJR CUNHA DISTRIBUIDORA DE MAT.CONSTR LTDA</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>43893.18582175926</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>85161000</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>LORENZETTI</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
+      <c r="Q55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>299065</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>ESP ILUM SAFIRA 4X2 CEGO 2254</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.096</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>7898322644131</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7898322644131</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>MJR CUNHA DISTRIBUIDORA DE MAT.CONSTR LTDA</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>43893.18582175926</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>85365090</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ILUMI</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
+      <c r="Q56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>263141</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>APLICADOR P/MASSA PLASTICA ULTRA</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.818</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>7898416680274</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7898416680274</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>MJR CUNHA DISTRIBUIDORA DE MAT.CONSTR LTDA</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>43893.18582175926</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>39269090</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PLASTIC</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
+      <c r="Q57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>361712</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>ROLO CASTOR LA N/RESPING 23CM 334 C/C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>7898003893346</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7898003893346</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>MJR CUNHA DISTRIBUIDORA DE MAT.CONSTR LTDA</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>43893.18582175926</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>96034010</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>CASTOR</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
+      <c r="Q58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>374350</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>MASSA CORRIDA PVA NOVA A 1/4</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.406</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>7898620810313</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7898620810313</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>MJR CUNHA DISTRIBUIDORA DE MAT.CONSTR LTDA</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>43893.18582175926</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>32141020</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
+      <c r="Q59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>21725</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>ZARCAO NATRIELLI CINZA 1/16</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.359</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>7897176400283</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7897176400283</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>MJR CUNHA DISTRIBUIDORA DE MAT.CONSTR LTDA</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>43893.18582175926</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>32089010</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>RCA</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
+      <c r="Q60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>40797</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ESMALTE 1/4 SINTET. EUCALAR BRANCO</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>13.9</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>7896587002321</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7896587002321</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>MJR CUNHA DISTRIBUIDORA DE MAT.CONSTR LTDA</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>43893.18582175926</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>32081010</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>GENÉRICO</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
+      <c r="Q61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>116076</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>SPRAY COLORGIN DECOR BRANCO 350ML 8641</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>10.758</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>7891494086419</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7891494086419</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>MJR CUNHA DISTRIBUIDORA DE MAT.CONSTR LTDA</t>
+        </is>
+      </c>
+      <c r="H62" s="2" t="n">
+        <v>43893.18582175926</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>32082019</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>GENÉRICO</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
+      <c r="Q62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>86843</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>CORANTE XADREZ 50ML VERMELHO</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>7891323075287</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7891323075287</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>MJR CUNHA DISTRIBUIDORA DE MAT.CONSTR LTDA</t>
+        </is>
+      </c>
+      <c r="H63" s="2" t="n">
+        <v>43893.18582175926</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>32041700</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>GENÉRICO</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
+      <c r="Q63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>125750</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>DOBRAD SILVANA POLIDA 850X2     C/24 521</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>10.802</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>7898087580521</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7898087580521</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>MJR CUNHA DISTRIBUIDORA DE MAT.CONSTR LTDA</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>43893.18582175926</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>83021000</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>GENÉRICO</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
+      <c r="Q64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>125768</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>DOBRAD SILVANA POLIDA 850X2.1/2 C/24 538</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>13.857</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>7898087580538</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7898087580538</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>MJR CUNHA DISTRIBUIDORA DE MAT.CONSTR LTDA</t>
+        </is>
+      </c>
+      <c r="H65" s="2" t="n">
+        <v>43893.18582175926</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>83021000</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>GENÉRICO</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
+      <c r="Q65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>173894</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>DOBRAD SILVANA POLIDA 850X1.1/2 C/24 885</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>7898087585885</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7898087585885</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>MJR CUNHA DISTRIBUIDORA DE MAT.CONSTR LTDA</t>
+        </is>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>43893.18582175926</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>83021000</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>GENÉRICO</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
+      <c r="Q66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>65080</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>CAVADEIRA 2 CABOS RAMADA LIGHT</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>43.99</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>7896438014190</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7896438014190</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>MJR CUNHA DISTRIBUIDORA DE MAT.CONSTR LTDA</t>
+        </is>
+      </c>
+      <c r="H67" s="2" t="n">
+        <v>43893.18582175926</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>82019000</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>GENÉRICO</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
+      <c r="Q67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>320480</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>BUCHA RED.LL LONGA CORR PLAST 1.1/2X3/4</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.334</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>SEM GTIN</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>BUCHA RED.LL LONGA CORR PLAST 1.1/2X3/4</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>MJR CUNHA DISTRIBUIDORA DE MAT.CONSTR LTDA</t>
+        </is>
+      </c>
+      <c r="H68" s="2" t="n">
+        <v>43893.18582175926</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>39174090</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>GENÉRICO</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
+      <c r="Q68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>257320</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>DISJ STECK SERIE SD61 25A 1P CURVA C 3KA</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>SEM GTIN</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>DISJ STECK SERIE SD61 25A 1P CURVA C 3KA</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>MJR CUNHA DISTRIBUIDORA DE MAT.CONSTR LTDA</t>
+        </is>
+      </c>
+      <c r="H69" s="2" t="n">
+        <v>43893.18582175926</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>85362000</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>GENÉRICO</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Sem categoria semelhante</t>
+        </is>
+      </c>
+      <c r="Q69" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/teste.xlsx
+++ b/teste.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD4"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,450 +438,209 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nome do Produto*</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>SKU Principal</t>
+          <t>Codigo Produto</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Descrição*</t>
+          <t>Descrição</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Categoria ID</t>
+          <t>Valor_unitário</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Nome Variante1</t>
+          <t>Código de Barras</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Opção por Variante1</t>
+          <t>Sku</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Imagem por Variante</t>
+          <t>Fornecedor</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Nome Variante2</t>
+          <t>Data Emissão</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Opção por Variante2</t>
+          <t>NCM</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>SKU</t>
+          <t>Marca</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Preço*</t>
+          <t>Peso</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Quantidade*</t>
+          <t>Url Imagem</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>GTIN</t>
+          <t>Largura</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Tabela de Tamanhos</t>
+          <t>Altura</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Imagem de Capa</t>
+          <t>Comprimento</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Item da Imagem1</t>
+          <t>Categoria</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Item da Imagem2</t>
+          <t>GTIN_Válido</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Item da Imagem3</t>
+          <t>Chave</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Item da Imagem4</t>
+          <t>ID_Variacao</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Item da Imagem5</t>
+          <t>Tipo</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Item da Imagem6</t>
+          <t>SKU_Pai</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Item da Imagem7</t>
+          <t>Base</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Item da Imagem8</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Item da Imagem9</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Peso (kg)*</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Comprimento (cm)</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Largura (cm)</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Altura (cm)</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Pré-encomenda DTS</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Link do Fornecedor</t>
+          <t>Variante</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ASSENTO SANIT TALENTO TTO ASTRA</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>7891222171400</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>186124</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ASSENTO SANIT BG TALENTO TTO ASTRA</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>101197</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Variação</t>
-        </is>
+          <t>FITA DUREX TRANSP 12X50 3M</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>3.544</v>
+      </c>
+      <c r="E2" t="n">
+        <v>78930469</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ASSENTO SANIT BG TALENTO TTO ASTRA</t>
+          <t>00000078930469</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?id=1KiFw4w4z7QW6gh6hnhFXdq4LHxJNN7tw</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>CONSTRUJA DISTR. DE MATERIAIS P/ CONSTRU</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>45846.32430555556</v>
+      </c>
+      <c r="I2" t="n">
+        <v>39191010</v>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>7891222172544</t>
+          <t>3M</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>24.097</v>
+        <v>0.032</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>7891222172544</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>https://drive.google.com/uc?id=1KiFw4w4z7QW6gh6hnhFXdq4LHxJNN7tw</t>
-        </is>
+          <t>https://cdn.construja.com.br/produtos/186124/186124.jpg</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>10</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>10</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>https://drive.google.com/uc?id=1YKyvIDF9PBMGRURgJ_O8VuDfUFrj2vfd</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>https://drive.google.com/uc?id=1rjwdj4MQR-FxASNV9K0viZYsAOvCXNQA</t>
-        </is>
+          <t>FITAS ADESIVAS</t>
+        </is>
+      </c>
+      <c r="Q2" t="b">
+        <v>1</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>https://cdn.construja.com.br/produtos/19630/19630.jpg</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="n">
-        <v>0.408</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ASSENTO SANIT TALENTO TTO ASTRA</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>7891222171400</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ASSENTO SANIT CZ TALENTO TTO ASTRA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>101197</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Variação</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>ASSENTO SANIT CZ TALENTO TTO ASTRA</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://drive.google.com/uc?id=1KiFw4w4z7QW6gh6hnhFXdq4LHxJNN7tw</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>7891222172612</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>24.097</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>7891222172612</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>https://drive.google.com/uc?id=1KiFw4w4z7QW6gh6hnhFXdq4LHxJNN7tw</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>https://drive.google.com/uc?id=1YKyvIDF9PBMGRURgJ_O8VuDfUFrj2vfd</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>https://drive.google.com/uc?id=1rjwdj4MQR-FxASNV9K0viZYsAOvCXNQA</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>https://cdn.construja.com.br/produtos/19631/19631.jpg</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="n">
-        <v>0.394</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ASSENTO SANIT TALENTO TTO ASTRA</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>7891222171400</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ASSENTO SANIT BR TALENTO TTO ASTRA</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>101197</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Variação</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>ASSENTO SANIT BR TALENTO TTO ASTRA</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://drive.google.com/uc?id=1KiFw4w4z7QW6gh6hnhFXdq4LHxJNN7tw</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>7891222171400</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>23.138</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>7891222171400</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>https://drive.google.com/uc?id=1KiFw4w4z7QW6gh6hnhFXdq4LHxJNN7tw</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>https://drive.google.com/uc?id=1YKyvIDF9PBMGRURgJ_O8VuDfUFrj2vfd</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>https://drive.google.com/uc?id=1rjwdj4MQR-FxASNV9K0viZYsAOvCXNQA</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>https://cdn.construja.com.br/produtos/19475/19475.jpg</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="n">
-        <v>0.476</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
+          <t>FITA DUREX TRANSP 12X50 3M</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>PAI</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>00000078930469</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>FITA DUREX TRANSP 3M</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>FITA DUREX TRANSP 12X50 3M</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
